--- a/InputData/trans/CIRbTF/Carbon Intensity Ratios by Transport Fuel.xlsx
+++ b/InputData/trans/CIRbTF/Carbon Intensity Ratios by Transport Fuel.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\CIRbTF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/ar/trans/cirbtf/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DEC6A8-6FC7-1F4D-92AE-6455861EB67C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27420" windowHeight="11880"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27420" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -105,7 +106,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,12 +144,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,19 +430,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="3">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -448,57 +453,57 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -510,7 +515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -520,18 +525,18 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -539,7 +544,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -547,7 +552,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -555,7 +560,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -563,7 +568,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -571,7 +576,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -579,7 +584,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -587,7 +592,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -595,7 +600,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -603,7 +608,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>

--- a/InputData/trans/CIRbTF/Carbon Intensity Ratios by Transport Fuel.xlsx
+++ b/InputData/trans/CIRbTF/Carbon Intensity Ratios by Transport Fuel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/ar/trans/cirbtf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/trans/cirbtf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DEC6A8-6FC7-1F4D-92AE-6455861EB67C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587731C9-0A24-3D42-B0AE-FC2FE0CE74D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27420" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
